--- a/EVMS/vms.xlsx
+++ b/EVMS/vms.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ymo\VMS\EVMS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65479C56-EB16-4A32-802C-819AEFC19C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4695" activeTab="3"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
     <sheet name="Voucher CRUD" sheetId="3" r:id="rId2"/>
     <sheet name="Customer" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="91">
   <si>
     <t>name</t>
   </si>
@@ -55,201 +62,282 @@
     <t>create voucher</t>
   </si>
   <si>
+    <t>onlymeusage/ gifttoother</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>thingyanPromo</t>
+  </si>
+  <si>
+    <t>HappyThingyan</t>
+  </si>
+  <si>
+    <t>30.04.2023</t>
+  </si>
+  <si>
+    <t>012A-C304-W01</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Buy evoucher</t>
+  </si>
+  <si>
+    <t>select eVoucher</t>
+  </si>
+  <si>
+    <t>Buy Type</t>
+  </si>
+  <si>
+    <t>kpay</t>
+  </si>
+  <si>
+    <t>Happy Thingyan</t>
+  </si>
+  <si>
+    <t>Sun Glasses</t>
+  </si>
+  <si>
+    <t>Buy Now</t>
+  </si>
+  <si>
+    <t>Promo code</t>
+  </si>
+  <si>
+    <t>SunGlasses</t>
+  </si>
+  <si>
+    <t>Checkout</t>
+  </si>
+  <si>
+    <t>Payment Method</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Kpay</t>
+  </si>
+  <si>
+    <t>Buy Goods</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>Zay Wal Kya Mal</t>
+  </si>
+  <si>
+    <t>Voucher List</t>
+  </si>
+  <si>
+    <t>Voucher Detail</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>exp-05.30.2023</t>
+  </si>
+  <si>
+    <t>Goods Detail</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>Purchase History</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Voucher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yi Mon </t>
+  </si>
+  <si>
+    <t>099999999</t>
+  </si>
+  <si>
+    <t>Maximun</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>used/unused</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>ExpiredDate</t>
+  </si>
+  <si>
+    <t>Goods</t>
+  </si>
+  <si>
+    <t>voucher</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>user_voucher</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>voucher_id</t>
+  </si>
+  <si>
+    <t>goods</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>maximum 3</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>gifttouser_id</t>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
     <t>description</t>
-  </si>
-  <si>
-    <t>onlymeusage/ gifttoother</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>nvarcher</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>buy_type</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>expiry_date</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>code</t>
-  </si>
-  <si>
-    <t>thingyanPromo</t>
-  </si>
-  <si>
-    <t>HappyThingyan</t>
-  </si>
-  <si>
-    <t>30.04.2023</t>
-  </si>
-  <si>
-    <t>012A-C304-W01</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Buy evoucher</t>
-  </si>
-  <si>
-    <t>select eVoucher</t>
-  </si>
-  <si>
-    <t>Buy Type</t>
-  </si>
-  <si>
-    <t>payment method</t>
-  </si>
-  <si>
-    <t>kpay</t>
-  </si>
-  <si>
-    <t>Happy Thingyan</t>
-  </si>
-  <si>
-    <t>Sun Glasses</t>
-  </si>
-  <si>
-    <t>Buy Now</t>
-  </si>
-  <si>
-    <t>Promo code</t>
-  </si>
-  <si>
-    <t>SunGlasses</t>
-  </si>
-  <si>
-    <t>verified</t>
-  </si>
-  <si>
-    <t>Checkout</t>
-  </si>
-  <si>
-    <t>Payment Method</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Kpay</t>
-  </si>
-  <si>
-    <t>Buy Goods</t>
-  </si>
-  <si>
-    <t>Buy</t>
-  </si>
-  <si>
-    <t>Zay Wal Kya Mal</t>
-  </si>
-  <si>
-    <t>Voucher List</t>
-  </si>
-  <si>
-    <t>Voucher Detail</t>
-  </si>
-  <si>
-    <t>dd</t>
-  </si>
-  <si>
-    <t>exp-05.30.2023</t>
-  </si>
-  <si>
-    <t>Goods Detail</t>
-  </si>
-  <si>
-    <t>Continue</t>
-  </si>
-  <si>
-    <t>Purchase History</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Phone Number</t>
-  </si>
-  <si>
-    <t>Voucher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yi Mon </t>
-  </si>
-  <si>
-    <t>099999999</t>
-  </si>
-  <si>
-    <t>Maximun</t>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>status</t>
-  </si>
-  <si>
-    <t>used/unused</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>ExpiredDate</t>
-  </si>
-  <si>
-    <t>Goods</t>
-  </si>
-  <si>
-    <t>voucher</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>phone_number</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>user_voucher</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>voucher_id</t>
-  </si>
-  <si>
-    <t>Buy_type</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>maximun</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>quantity</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>user_goods</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>user_voucher_id</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>payment_method</t>
-  </si>
-  <si>
-    <t>user_voucher_id</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>verified &amp; Checkout</t>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>goods_id</t>
-  </si>
-  <si>
-    <t>user_goods</t>
-  </si>
-  <si>
-    <t>goods</t>
-  </si>
-  <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>maximum 3</t>
-  </si>
-  <si>
-    <t>qty</t>
-  </si>
-  <si>
-    <t>gifttouser_id</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Original Price</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Promo Price</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>promo_price</t>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -257,7 +345,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -275,22 +363,47 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Pyidaungsu"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Pyidaungsu"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Pyidaungsu"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -392,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -404,18 +517,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -425,11 +532,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -449,10 +553,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -461,11 +565,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -479,7 +580,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -492,18 +593,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="24" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,6 +620,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -535,7 +645,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -591,7 +707,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -646,7 +768,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -701,7 +829,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -748,7 +882,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -795,7 +935,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -853,7 +999,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -911,7 +1063,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9"/>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -967,7 +1125,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 10"/>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1025,7 +1189,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 11"/>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1114,7 +1284,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1147,9 +1317,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1182,6 +1369,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1357,234 +1561,351 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C5:J16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.5" x14ac:dyDescent="0.85"/>
   <cols>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.7265625" style="36"/>
+    <col min="3" max="3" width="17.26953125" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.90625" style="36" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="36"/>
+    <col min="6" max="6" width="17.26953125" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.7265625" style="36"/>
+    <col min="9" max="9" width="15.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="36"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="41" t="s">
+    <row r="5" spans="3:10" x14ac:dyDescent="0.85">
+      <c r="C5" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="F5" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.85">
+      <c r="C6" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.85">
+      <c r="C7" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.85">
+      <c r="C8" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.85">
+      <c r="F9" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.85">
+      <c r="C10" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="35"/>
+      <c r="F10" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.85">
+      <c r="C11" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.85">
+      <c r="C12" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.85">
+      <c r="C13" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E9" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="41" t="s">
+      <c r="D13" s="36" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="9" t="s">
+      <c r="F13" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.85">
+      <c r="C14" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.85">
+      <c r="C15" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.85">
+      <c r="C16" s="40" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="44" t="s">
-        <v>71</v>
+      <c r="D16" s="36" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B5:M22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="38" t="s">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:5" ht="14.5" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" ht="14.5" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" ht="14.5" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:5" ht="14.5" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="42" t="s">
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" ht="14.5" x14ac:dyDescent="0.2">
+      <c r="C13" s="33" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:5" ht="14.5" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="42" t="s">
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" ht="14.5" x14ac:dyDescent="0.2">
+      <c r="C15" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" ht="14.5" x14ac:dyDescent="0.2">
       <c r="C16" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="14.5" x14ac:dyDescent="0.2">
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D17" s="3"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="14.5" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>3</v>
@@ -1596,7 +1917,7 @@
         <v>5</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>6</v>
@@ -1604,57 +1925,57 @@
       <c r="H19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="5" t="s">
         <v>8</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="14.5" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
         <v>1</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="12">
+      <c r="H20" s="8">
         <v>10</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>24</v>
+      <c r="I20" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="J20" s="3">
         <v>40</v>
       </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="11">
+      <c r="K20" s="6"/>
+      <c r="L20" s="7">
         <v>3</v>
       </c>
-      <c r="M20" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M20" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1662,13 +1983,13 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="7"/>
+      <c r="I21" s="6"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K21" s="6"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1676,296 +1997,297 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="7"/>
+      <c r="I22" s="6"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B4:K30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="16.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="G8" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="12">
+        <v>10</v>
+      </c>
+      <c r="D9" s="12">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="D10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="16">
+        <v>2</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="H18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="20">
+        <v>100</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="19">
+        <v>100</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="H20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="16">
+      <c r="D21" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" s="29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="16">
+        <v>1</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29" s="28">
         <v>10</v>
       </c>
-      <c r="D9" s="16">
-        <v>20</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="21">
+      <c r="J29" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" s="28">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="16">
         <v>2</v>
       </c>
-      <c r="H11" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="G12" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="24">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="25">
-        <v>100</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="24">
-        <v>100</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="27"/>
-      <c r="E20" s="28"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21" s="31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="H28" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="I28" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="J28" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="K28" s="35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="21">
-        <v>1</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="I29" s="34">
-        <v>10</v>
-      </c>
-      <c r="J29" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="K29" s="34">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="21">
-        <v>2</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFE7F3A-5CFF-4C17-9FA6-915A61F8927F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/EVMS/vms.xlsx
+++ b/EVMS/vms.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ymo\VMS\EVMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65479C56-EB16-4A32-802C-819AEFC19C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137C0670-EE13-41F1-B3D6-5B6B8A16E511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
-    <sheet name="Voucher CRUD" sheetId="3" r:id="rId2"/>
-    <sheet name="Customer" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
+    <sheet name="Functional Flow Diagram" sheetId="5" r:id="rId2"/>
+    <sheet name="Voucher CRUD" sheetId="3" r:id="rId3"/>
+    <sheet name="Customer" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -634,14 +633,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -656,8 +655,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2276475" y="2333625"/>
-          <a:ext cx="942975" cy="371475"/>
+          <a:off x="2276475" y="2416175"/>
+          <a:ext cx="942975" cy="320675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -696,13 +695,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -757,13 +756,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -817,15 +816,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -839,9 +838,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2419350" y="1409700"/>
-          <a:ext cx="0" cy="923925"/>
+        <a:xfrm flipH="1">
+          <a:off x="2400300" y="1231900"/>
+          <a:ext cx="19050" cy="1181100"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -869,16 +868,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -892,9 +891,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3048000" y="1419225"/>
-          <a:ext cx="0" cy="923925"/>
+        <a:xfrm flipH="1">
+          <a:off x="3035300" y="1241425"/>
+          <a:ext cx="12700" cy="1190625"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -922,16 +921,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>463551</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -946,8 +945,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1257301" y="1790701"/>
-          <a:ext cx="1133474" cy="266700"/>
+          <a:off x="1073151" y="1263650"/>
+          <a:ext cx="1308100" cy="819150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -974,11 +973,37 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="r"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>CRUD Vouchers</a:t>
+            <a:t>1.Create vouchers</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>2. Update vouchers</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>3. Delete</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> vouchers</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>4. View voucher list</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -987,15 +1012,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>34924</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1010,8 +1035,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3057525" y="1638300"/>
-          <a:ext cx="990600" cy="266700"/>
+          <a:off x="3082924" y="1365250"/>
+          <a:ext cx="3082926" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1041,8 +1066,40 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Buy Vouchers</a:t>
+            <a:t>1. View available voucher</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> list</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Buy Vouchers ( </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>only me usage/ gift to other)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1051,22 +1108,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9">
+        <xdr:cNvPr id="5" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6798DE90-D1EA-4F1B-BC91-CB68FD566954}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1074,8 +1131,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2305050" y="3133725"/>
-          <a:ext cx="942975" cy="371475"/>
+          <a:off x="2286000" y="3543300"/>
+          <a:ext cx="942975" cy="320675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1101,10 +1158,9 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Verify</a:t>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Goods</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1112,23 +1168,76 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{655DD795-6E9C-4D4E-9F9B-79193F3D7617}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3028950" y="2730500"/>
+          <a:ext cx="0" cy="796925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22224</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 10">
+        <xdr:cNvPr id="14" name="Rectangle 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBE3D521-CF2A-4AC0-A3CE-174CE22AB23C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1136,8 +1245,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3657600" y="3429000"/>
-          <a:ext cx="523875" cy="266700"/>
+          <a:off x="3070224" y="2800350"/>
+          <a:ext cx="2384426" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1167,7 +1276,80 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Verify</a:t>
+            <a:t>1. Buy with Vouchers</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>2. can choose payment</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> methods</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACA02222-25FA-4C03-8A60-233683E6FDC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="4692650"/>
+          <a:ext cx="942975" cy="320675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Reports</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1176,23 +1358,76 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24A3F9CF-3377-4CB6-81D3-EBD008ED320D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3028950" y="3879850"/>
+          <a:ext cx="0" cy="796925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22224</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 11">
+        <xdr:cNvPr id="24" name="Rectangle 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21F7FB30-89F0-4B42-B6E5-D8A057F99450}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1200,8 +1435,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4267200" y="2857500"/>
-          <a:ext cx="990600" cy="266700"/>
+          <a:off x="3070224" y="3924300"/>
+          <a:ext cx="2384426" cy="501650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1231,8 +1466,20 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Checkout</a:t>
+            <a:t>1. View</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> purchase history</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>2. View Unused and Used Vouchers</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1788,6 +2035,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B5:M22"/>
   <sheetViews>
@@ -2009,12 +2272,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B4:K30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2259,35 +2522,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="7"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFE7F3A-5CFF-4C17-9FA6-915A61F8927F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="7"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>